--- a/src/main/resources/03 Form Listesi.xlsx
+++ b/src/main/resources/03 Form Listesi.xlsx
@@ -1,27 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laptopwork\Doktora\Tez Savunma\Tez İçerik\Model Çalışma\Matriks_Listeler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596EEAF3-2E63-4537-B36B-2ADA89D0CB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BF85F-5FC6-4098-9AE2-7F611A1F93C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="20055" windowHeight="21000" xr2:uid="{0D52DB73-6D49-4C18-8B3C-CA2A4EF74F3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D52DB73-6D49-4C18-8B3C-CA2A4EF74F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Listesi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">'Form Listesi'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form Listesi'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -397,43 +406,53 @@
     <t>F26</t>
   </si>
   <si>
-    <t>Doğrusal Paralel Ekstrüzyon</t>
-  </si>
-  <si>
-    <t>Eğrisel Paralel Ekstrüzyon</t>
-  </si>
-  <si>
-    <t>Doğrusal Merkezi Ekstrüzyon</t>
-  </si>
-  <si>
-    <t>Eğrisel Merkezi Ekstrüzyon</t>
-  </si>
-  <si>
-    <t>Doğrusal Merkezi Döner</t>
-  </si>
-  <si>
-    <t>Eğrisel Merkezi Döner</t>
-  </si>
-  <si>
-    <t>Çok Yüzlü Merkezi Simetri</t>
-  </si>
-  <si>
-    <t>Eğrisel Tek Kesit Tek Yol</t>
-  </si>
-  <si>
-    <t>Eğrisel Çok Kesit Çok Yol</t>
-  </si>
-  <si>
-    <t>Eğrisel Ötelenen Yüzeyler</t>
-  </si>
-  <si>
-    <t>Yüksek Cins Topoloji</t>
-  </si>
-  <si>
     <t>Topografya</t>
   </si>
   <si>
     <t>Deniz Organizma</t>
+  </si>
+  <si>
+    <t>Paralel Ekstrüzyon
+Doğrusal</t>
+  </si>
+  <si>
+    <t>Paralel Ekstrüzyon
+Eğrisel</t>
+  </si>
+  <si>
+    <t>Merkezi Ekstrüzyon
+Doğrusal</t>
+  </si>
+  <si>
+    <t>Merkezi Ekstrüzyon
+Eğrisel</t>
+  </si>
+  <si>
+    <t>Merkezi Döner
+Doğrusal</t>
+  </si>
+  <si>
+    <t>Merkezi Döner
+Eğrisel</t>
+  </si>
+  <si>
+    <t>Çok yüzlüler
+Merkezi simetri</t>
+  </si>
+  <si>
+    <t>Tek kesit tek yol
+Eğrisel</t>
+  </si>
+  <si>
+    <t>Çok kesit Çok yol
+Eğrisel</t>
+  </si>
+  <si>
+    <t>Ötelenen Yüzeyler
+Eğrisel</t>
+  </si>
+  <si>
+    <t>Yüksek cins topoloji</t>
   </si>
 </sst>
 </file>
@@ -513,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -535,9 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +581,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -861,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD43BDA2-CC13-44A0-8D90-BCFC18A32DB0}">
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -872,637 +888,608 @@
     <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="63.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="28" width="5.7109375" style="5" customWidth="1"/>
-    <col min="29" max="29" width="2.7109375" style="5" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" style="5" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" style="5" customWidth="1"/>
-    <col min="32" max="32" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.7109375" style="5" customWidth="1"/>
-    <col min="34" max="98" width="8.85546875" style="5" customWidth="1"/>
-    <col min="99" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="4" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="5.7109375" style="5" customWidth="1"/>
+    <col min="28" max="28" width="2.7109375" style="5" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" style="5" customWidth="1"/>
+    <col min="30" max="30" width="4.7109375" style="5" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.7109375" style="5" customWidth="1"/>
+    <col min="33" max="97" width="8.85546875" style="5" customWidth="1"/>
+    <col min="98" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E1" s="1"/>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D28" si="0">ROW()-ROW($D$2)</f>
+      <c r="D3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
+      <c r="D4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="2">
-        <f t="shared" si="0"/>
+      <c r="D5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
+      <c r="D7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
+      <c r="D8" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>6</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
+      <c r="D9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>7</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
+      <c r="D10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>8</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
+      <c r="D11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="4" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
+      <c r="D12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
+      <c r="D13" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>11</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G13" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>12</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
+      <c r="D15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>13</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I15" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
+      <c r="D16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="4" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>15</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>16</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
+      <c r="D19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>17</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="G19" s="4" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I19" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>18</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G20" s="4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
+      <c r="D21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>19</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G21" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>20</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G22" s="4" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I22" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
+      <c r="D23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>21</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G23" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>22</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G24" s="4" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I24" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
+      <c r="D25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>23</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G25" s="4" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
+      <c r="D26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>24</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G26" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
+      <c r="D27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>25</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
+      <c r="D28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2">
+        <f>ROW()-ROW($E$2)</f>
         <v>26</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="G28" s="4" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I28" s="4" t="s">
         <v>79</v>
       </c>
     </row>

--- a/src/main/resources/03 Form Listesi.xlsx
+++ b/src/main/resources/03 Form Listesi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61BF85F-5FC6-4098-9AE2-7F611A1F93C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515EF66D-AAF9-431D-83D0-39CFB41CA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D52DB73-6D49-4C18-8B3C-CA2A4EF74F3F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>NO</t>
   </si>
@@ -406,12 +406,6 @@
     <t>F26</t>
   </si>
   <si>
-    <t>Topografya</t>
-  </si>
-  <si>
-    <t>Deniz Organizma</t>
-  </si>
-  <si>
     <t>Paralel Ekstrüzyon
 Doğrusal</t>
   </si>
@@ -453,6 +447,9 @@
   </si>
   <si>
     <t>Yüksek cins topoloji</t>
+  </si>
+  <si>
+    <t>Deniz Organizmaları</t>
   </si>
 </sst>
 </file>
@@ -879,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD43BDA2-CC13-44A0-8D90-BCFC18A32DB0}">
   <dimension ref="B1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -933,10 +930,10 @@
         <v>93</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" ref="E3:E28" si="0">ROW()-ROW($E$2)</f>
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -954,10 +951,10 @@
         <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E4" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -975,10 +972,10 @@
         <v>95</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -996,10 +993,10 @@
         <v>96</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1017,10 +1014,10 @@
         <v>97</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -1038,10 +1035,10 @@
         <v>98</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1059,10 +1056,10 @@
         <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
@@ -1080,10 +1077,10 @@
         <v>100</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1101,10 +1098,10 @@
         <v>101</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -1122,10 +1119,10 @@
         <v>102</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1143,10 +1140,10 @@
         <v>103</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -1170,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -1192,7 +1189,7 @@
         <v>63</v>
       </c>
       <c r="E15" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="F15" s="4" t="s">
@@ -1214,7 +1211,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1236,7 +1233,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F17" s="4" t="s">
@@ -1258,7 +1255,7 @@
         <v>44</v>
       </c>
       <c r="E18" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
@@ -1277,10 +1274,10 @@
         <v>109</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="F19" s="4" t="s">
@@ -1302,7 +1299,7 @@
         <v>46</v>
       </c>
       <c r="E20" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="F20" s="4" t="s">
@@ -1326,7 +1323,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
@@ -1347,7 +1344,7 @@
         <v>48</v>
       </c>
       <c r="E22" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="F22" s="4" t="s">
@@ -1368,7 +1365,7 @@
         <v>37</v>
       </c>
       <c r="E23" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F23" s="4" t="s">
@@ -1392,7 +1389,7 @@
         <v>41</v>
       </c>
       <c r="E24" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="F24" s="4" t="s">
@@ -1414,7 +1411,7 @@
         <v>51</v>
       </c>
       <c r="E25" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1433,10 +1430,10 @@
         <v>116</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1458,7 +1455,7 @@
         <v>81</v>
       </c>
       <c r="E27" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1480,7 +1477,7 @@
         <v>82</v>
       </c>
       <c r="E28" s="2">
-        <f>ROW()-ROW($E$2)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="F28" s="4" t="s">

--- a/src/main/resources/03 Form Listesi.xlsx
+++ b/src/main/resources/03 Form Listesi.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmetoflu\Desktop\ahmtrdm\material\Archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laptopwork\Doktora\TİK_5 Tez İzleme Kurulu\Tez İçerik\Model Çalışma\Matriks_Listeler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515EF66D-AAF9-431D-83D0-39CFB41CA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5373AC9-FA47-4B76-BE7D-623C7BCBF928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{0D52DB73-6D49-4C18-8B3C-CA2A4EF74F3F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{0D52DB73-6D49-4C18-8B3C-CA2A4EF74F3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Listesi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form Listesi'!#REF!</definedName>
+    <definedName name="Print_Area" localSheetId="0">'Form Listesi'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="132">
   <si>
     <t>NO</t>
   </si>
@@ -207,36 +198,15 @@
     <t>Mikro Mimari Örnekler</t>
   </si>
   <si>
-    <t>Lucy Cube, Hypercubus</t>
-  </si>
-  <si>
     <t>Değişen kesit ve çoklu Yol, Eşdeğer Eğriler ile Örülen Yüzeylerin kaplanması yüzeyler hacimler: Hiperbolik paraboloid, Enneper, Scherk'in minimal yüzeyi, Küre, torus veya Deforme Olan Türevleri, Eğri Evrimi, Cassini eğrileri, Eliptik paraboloid</t>
   </si>
   <si>
     <t>Kaynak Eğrisini Kılavuz Eğrisi Boyunca Öteleme Yüzeyler hacimler: Hiperbolik paraboloid, Enneper, Konoid, Plücker konoidi, Whitney şemsiyesi, Möbius bandı</t>
   </si>
   <si>
-    <t>Piramit Çadır</t>
-  </si>
-  <si>
-    <t>Archipod, Loop dome (2018)</t>
-  </si>
-  <si>
-    <t>InsideOut Gridshell (2017), Shell Shape, Gridshell Exploration, InsideOut Gridshell (2017)</t>
-  </si>
-  <si>
-    <t>Torus Sculpture</t>
-  </si>
-  <si>
     <t>Selgascano, Ephemeral Bubble, Birdnest-eggshell</t>
   </si>
   <si>
-    <t xml:space="preserve">Boolean Operator, The Winton Gallery </t>
-  </si>
-  <si>
-    <t>Cloud Gate, Hutong Bubble 218, The Droplet Pavilion (2017)</t>
-  </si>
-  <si>
     <t>Sıvı Hareketi</t>
   </si>
   <si>
@@ -255,36 +225,18 @@
     <t>Kabarcıklar ve Köpükler, Çok Yüzlü Kabarcıklar, Sabun Köpüğü, Sünger, Buharlı Gökyüzü, Bulutlar.</t>
   </si>
   <si>
-    <t>Bubble Pavilion, Style PORSCHE, Skum Pavilion (2016)</t>
-  </si>
-  <si>
     <t>Decomposition Farm Stairway, Spiraling Tower, The Eddy Pavilion</t>
   </si>
   <si>
-    <t>Pentaura Pavilion, Tarang Pavilion, Boulder Park (2024)</t>
-  </si>
-  <si>
-    <t>Fractal Pavilion, Digital Metal, Versatile Bracketry (2021)</t>
-  </si>
-  <si>
     <t>Kar Taneleri altıgen dizili olarak fraktal döşenme, Dentritik Büyüme. Elektrik Sıçraması, Yıldırım Çarpması</t>
   </si>
   <si>
     <t>Pollinators Pavilion, Nexorade (2018)</t>
   </si>
   <si>
-    <t>The Pavilion of Contemplation, Plaisiophy, Photoptosis (2018)</t>
-  </si>
-  <si>
     <t>Rose Pavilion, Fresh Flower, Ban</t>
   </si>
   <si>
-    <t>Mars Pavilion, Under Magnitude, Wave Pavilion (2020)</t>
-  </si>
-  <si>
-    <t>The Orb, Fly's Eye Dome, Urchin (2019)</t>
-  </si>
-  <si>
     <t>ICD ITKE Pavilion 2013-14, BUGA Fibre Pavilion, ICD ITKE Pavilion 2014-15</t>
   </si>
   <si>
@@ -300,31 +252,13 @@
     <t>Örümcek ağları, ipek böceği, kozalar, kuş yuvası, kelebek kanadı dokusu, pullar, Böcek gözü</t>
   </si>
   <si>
-    <t>Aguahoja, Future Space Pavilion (2018)</t>
-  </si>
-  <si>
-    <t>Twisted Brick Shell, Neptunea</t>
-  </si>
-  <si>
     <t xml:space="preserve">2016 BIG Serpentine Pavilion, Fireplace for Children </t>
-  </si>
-  <si>
-    <t>Geodesic dome, Micro Dwellings (2005)</t>
-  </si>
-  <si>
-    <t>MySilo, Kuş gözlem kulesi Varberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shell, Treehouse Djuren </t>
   </si>
   <si>
     <t>Kaynak: Çoklu çizgi, Çokgen
 Kılavuz: Merkezi çizgi</t>
   </si>
   <si>
-    <t>Sky Light, Polycentric Pavilion (2016), Vertical Panorama Pavilion</t>
-  </si>
-  <si>
     <t>Tek kesit ve Tek Yol yüzey hacimler: Helikal Yüzeyler, Helikoid, Boru Yüzeyleri, Toruslar, Düğümler.</t>
   </si>
   <si>
@@ -406,50 +340,100 @@
     <t>F26</t>
   </si>
   <si>
-    <t>Paralel Ekstrüzyon
-Doğrusal</t>
-  </si>
-  <si>
-    <t>Paralel Ekstrüzyon
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Merkezi Ekstrüzyon
-Doğrusal</t>
-  </si>
-  <si>
-    <t>Merkezi Ekstrüzyon
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Merkezi Döner
-Doğrusal</t>
-  </si>
-  <si>
-    <t>Merkezi Döner
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Çok yüzlüler
-Merkezi simetri</t>
-  </si>
-  <si>
-    <t>Tek kesit tek yol
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Çok kesit Çok yol
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Ötelenen Yüzeyler
-Eğrisel</t>
-  </si>
-  <si>
-    <t>Yüksek cins topoloji</t>
-  </si>
-  <si>
-    <t>Deniz Organizmaları</t>
+    <t>Doğrusal Paralel Ekstrüzyon</t>
+  </si>
+  <si>
+    <t>Eğrisel Paralel Ekstrüzyon</t>
+  </si>
+  <si>
+    <t>Doğrusal Merkezi Ekstrüzyon</t>
+  </si>
+  <si>
+    <t>Eğrisel Merkezi Ekstrüzyon</t>
+  </si>
+  <si>
+    <t>Doğrusal Merkezi Döner</t>
+  </si>
+  <si>
+    <t>Eğrisel Merkezi Döner</t>
+  </si>
+  <si>
+    <t>Çok Yüzlü Merkezi Simetri</t>
+  </si>
+  <si>
+    <t>Eğrisel Tek Kesit Tek Yol</t>
+  </si>
+  <si>
+    <t>Eğrisel Çok Kesit Çok Yol</t>
+  </si>
+  <si>
+    <t>Eğrisel Ötelenen Yüzeyler</t>
+  </si>
+  <si>
+    <t>Yüksek Cins Topoloji</t>
+  </si>
+  <si>
+    <t>Topografya</t>
+  </si>
+  <si>
+    <t>Deniz Organizma</t>
+  </si>
+  <si>
+    <t>Hypercubus, Lucy Cube, Primitive Hut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Arc, Shell, Treehouse Djuren </t>
+  </si>
+  <si>
+    <t>Piramit Çadır, House in Saijo, Pyramid Glass House</t>
+  </si>
+  <si>
+    <t>Sky Light, Polycentric Pavilion, Vertical Panorama Pavilion, Spain Pavilion Expo</t>
+  </si>
+  <si>
+    <t>MySilo, Kuş gözlem kulesi Varberg, Silo Living</t>
+  </si>
+  <si>
+    <t>Archipod, Loop dome, The Yellow Treehouse, Treetents</t>
+  </si>
+  <si>
+    <t>Geodesic dome, Micro Dwellings, Habitable Polyhedron</t>
+  </si>
+  <si>
+    <t>Torus Sculpture, Forest Loops, Peace Pavilion</t>
+  </si>
+  <si>
+    <t>InsideOut Gridshell, Shell Shape, Gridshell Exploration, Los Manantiales</t>
+  </si>
+  <si>
+    <t>Boolean Operator, The Winton Gallery, MicroNature</t>
+  </si>
+  <si>
+    <t>Cloud Gate, Hutong Bubble 218, The Droplet Pavilion</t>
+  </si>
+  <si>
+    <t>Bubble Pavilion, Style PORSCHE, Skum Pavilion</t>
+  </si>
+  <si>
+    <t>Pentaura Pavilion, Tarang Pavilion, Boulder Park</t>
+  </si>
+  <si>
+    <t>Fractal Pavilion, Digital Metal, Versatile Bracketry</t>
+  </si>
+  <si>
+    <t>The Pavilion of Contemplation, Plaisiophy, Photoptosis</t>
+  </si>
+  <si>
+    <t>Mars Pavilion, Under Magnitude, Wave Pavilion</t>
+  </si>
+  <si>
+    <t>Twisted Brick Shell, Neptunea, The Vanke Pavilion</t>
+  </si>
+  <si>
+    <t>The Orb, Fly's Eye Dome, Urchin</t>
+  </si>
+  <si>
+    <t>Aguahoja, Future Space Pavilion, Echinoidea</t>
   </si>
 </sst>
 </file>
@@ -529,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -551,6 +535,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -874,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD43BDA2-CC13-44A0-8D90-BCFC18A32DB0}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -885,609 +872,638 @@
     <col min="1" max="1" width="4.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="27" width="5.7109375" style="5" customWidth="1"/>
-    <col min="28" max="28" width="2.7109375" style="5" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="5" customWidth="1"/>
-    <col min="30" max="30" width="4.7109375" style="5" customWidth="1"/>
-    <col min="31" max="31" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.7109375" style="5" customWidth="1"/>
-    <col min="33" max="97" width="8.85546875" style="5" customWidth="1"/>
-    <col min="98" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="4" width="5.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="28" width="5.7109375" style="5" customWidth="1"/>
+    <col min="29" max="29" width="2.7109375" style="5" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" style="5" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" style="5" customWidth="1"/>
+    <col min="32" max="32" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" style="5" customWidth="1"/>
+    <col min="34" max="98" width="8.85546875" style="5" customWidth="1"/>
+    <col min="99" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D1" s="1"/>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="3" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D28" si="0">ROW()-ROW($D$2)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E28" si="0">ROW()-ROW($E$2)</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="4" t="s">
+    </row>
+    <row r="10" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="4" t="s">
+    </row>
+    <row r="13" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="E13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="2">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="8"/>
       <c r="G15" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="2">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="2">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="2">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="8"/>
+      <c r="G20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="H20" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="8"/>
+      <c r="G21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="8"/>
+      <c r="G22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I22" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="I23" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I25" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2">
+        <v>98</v>
+      </c>
+      <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="I27" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="2">
+        <v>99</v>
+      </c>
+      <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="E28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
